--- a/stock.xlsx
+++ b/stock.xlsx
@@ -9,32 +9,185 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="0.0001"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
   <si>
     <t>股票代號</t>
   </si>
   <si>
+    <t>股票名稱</t>
+  </si>
+  <si>
+    <t>成交價</t>
+  </si>
+  <si>
     <t>漲跌</t>
   </si>
   <si>
-    <t>40.30</t>
-  </si>
-  <si>
-    <t>-0.20</t>
-  </si>
-  <si>
-    <t>1102</t>
-  </si>
-  <si>
-    <t>31.75</t>
-  </si>
-  <si>
-    <t>0.45</t>
+    <t>聯電</t>
+  </si>
+  <si>
+    <t>15.70</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>南亞</t>
+  </si>
+  <si>
+    <t>80.8</t>
+  </si>
+  <si>
+    <t>-0.2</t>
+  </si>
+  <si>
+    <t>台肥</t>
+  </si>
+  <si>
+    <t>39.85</t>
+  </si>
+  <si>
+    <t>中碳</t>
+  </si>
+  <si>
+    <t>155.5</t>
+  </si>
+  <si>
+    <t>中華</t>
+  </si>
+  <si>
+    <t>27.65</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>茂矽</t>
+  </si>
+  <si>
+    <t>31.70</t>
+  </si>
+  <si>
+    <t>1.35</t>
+  </si>
+  <si>
+    <t>華邦電</t>
+  </si>
+  <si>
+    <t>17.85</t>
+  </si>
+  <si>
+    <t>0.40</t>
+  </si>
+  <si>
+    <t>英業達</t>
+  </si>
+  <si>
+    <t>22.40</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>震旦行</t>
+  </si>
+  <si>
+    <t>86.9</t>
+  </si>
+  <si>
+    <t>-0.6</t>
+  </si>
+  <si>
+    <t>翔耀</t>
+  </si>
+  <si>
+    <t>9.74</t>
+  </si>
+  <si>
+    <t>-0.26</t>
+  </si>
+  <si>
+    <t>華映</t>
+  </si>
+  <si>
+    <t>1.83</t>
+  </si>
+  <si>
+    <t>-0.03</t>
+  </si>
+  <si>
+    <t>華南金</t>
+  </si>
+  <si>
+    <t>國泰金</t>
+  </si>
+  <si>
+    <t>53.5</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>鑽全</t>
+  </si>
+  <si>
+    <t>52.8</t>
+  </si>
+  <si>
+    <t>-0.3</t>
+  </si>
+  <si>
+    <t>晶華</t>
+  </si>
+  <si>
+    <t>153.5</t>
+  </si>
+  <si>
+    <t>-0.5</t>
+  </si>
+  <si>
+    <t>0061</t>
+  </si>
+  <si>
+    <t>元大寶滬深</t>
+  </si>
+  <si>
+    <t>18.19</t>
+  </si>
+  <si>
+    <t>-0.11</t>
+  </si>
+  <si>
+    <t>福興</t>
+  </si>
+  <si>
+    <t>35.70</t>
+  </si>
+  <si>
+    <t>2330</t>
+  </si>
+  <si>
+    <t>台積電</t>
+  </si>
+  <si>
+    <t>223.5</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>0050</t>
+  </si>
+  <si>
+    <t>元大台灣50</t>
+  </si>
+  <si>
+    <t>79.20</t>
   </si>
 </sst>
 </file>
@@ -42,13 +195,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <charset val="1"/>
       <family val="2"/>
       <color rgb="FF000000"/>
       <sz val="11"/>
+    </font>
+    <font>
+      <name val="新細明體"/>
+      <charset val="136"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <name val="Noto Sans CJK SC Regular"/>
@@ -81,18 +242,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle builtinId="0" name="一般" xfId="0"/>
+    <cellStyle name="一般 2" xfId="1"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
@@ -387,60 +558,298 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="4" width="9.109375"/>
-    <col customWidth="1" max="1025" min="2" style="1" width="9.109375"/>
+    <col customWidth="1" max="2" min="1" style="4" width="9.109375"/>
+    <col customWidth="1" max="1026" min="3" style="1" width="9.109375"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.75" r="1" s="1" spans="1:3">
+    <row customHeight="1" ht="12.75" r="1" s="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="13.8" r="2" s="1" spans="1:3">
-      <c r="A2" s="4" t="n">
-        <v>1101</v>
-      </c>
-      <c r="B2" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="2" s="1" spans="1:4">
+      <c r="A2" s="6" t="n">
+        <v>2303</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="13.8" r="3" s="1" spans="1:3">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
         <v>5</v>
       </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="3" s="1" spans="1:4">
+      <c r="A3" s="6" t="n">
+        <v>1303</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="4" s="1" spans="1:4">
+      <c r="A4" s="6" t="n">
+        <v>1722</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="4" s="1" spans="1:3"/>
-    <row customHeight="1" ht="13.8" r="5" s="1" spans="1:3"/>
-    <row customHeight="1" ht="13.8" r="6" s="1" spans="1:3"/>
-    <row customHeight="1" ht="13.8" r="7" s="1" spans="1:3"/>
-    <row customHeight="1" ht="13.8" r="8" s="1" spans="1:3"/>
-    <row customHeight="1" ht="13.8" r="9" s="1" spans="1:3"/>
-    <row customHeight="1" ht="13.8" r="10" s="1" spans="1:3"/>
-    <row customHeight="1" ht="13.8" r="11" s="1" spans="1:3"/>
-    <row customHeight="1" ht="13.8" r="12" s="1" spans="1:3"/>
+    <row customHeight="1" ht="13.8" r="5" s="1" spans="1:4">
+      <c r="A5" s="6" t="n">
+        <v>1723</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="6" s="1" spans="1:4">
+      <c r="A6" s="6" t="n">
+        <v>2204</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="7" s="1" spans="1:4">
+      <c r="A7" s="6" t="n">
+        <v>2342</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="8" s="1" spans="1:4">
+      <c r="A8" s="6" t="n">
+        <v>2344</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="9" s="1" spans="1:4">
+      <c r="A9" s="6" t="n">
+        <v>2356</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="10" s="1" spans="1:4">
+      <c r="A10" s="6" t="n">
+        <v>2373</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="11" s="1" spans="1:4">
+      <c r="A11" s="6" t="n">
+        <v>2438</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="12" s="1" spans="1:4">
+      <c r="A12" s="6" t="n">
+        <v>2475</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="16.2" r="13" s="1" spans="1:4">
+      <c r="A13" s="6" t="n">
+        <v>2880</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="16.2" r="14" s="1" spans="1:4">
+      <c r="A14" s="6" t="n">
+        <v>2882</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="16.2" r="15" s="1" spans="1:4">
+      <c r="A15" s="6" t="n">
+        <v>1527</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="16.2" r="16" s="1" spans="1:4">
+      <c r="A16" s="6" t="n">
+        <v>2707</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="16.2" r="17" s="1" spans="1:4">
+      <c r="A17" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="16.2" r="18" s="1" spans="1:4">
+      <c r="A18" s="6" t="n">
+        <v>9924</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
   <pageSetup firstPageNumber="0" horizontalDpi="1200" orientation="portrait" paperSize="9" verticalDpi="1200"/>
